--- a/data extraction /lit search metadata /acclimation /acclimationjan29.xlsx
+++ b/data extraction /lit search metadata /acclimation /acclimationjan29.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /acclimation /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{767809C8-659B-3841-85BB-569D8ECC3C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAF5598-01AC-974E-A20E-0B28861AB884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29020" yWindow="-23920" windowWidth="22880" windowHeight="14400" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="28600" windowHeight="14400" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -809,7 +809,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data extraction /lit search metadata /acclimation /acclimationjan29.xlsx
+++ b/data extraction /lit search metadata /acclimation /acclimationjan29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /acclimation /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAF5598-01AC-974E-A20E-0B28861AB884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1033DDE-6A04-8F41-BD89-D5CF356F0B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="28600" windowHeight="14400" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
+    <workbookView xWindow="440" yWindow="460" windowWidth="28600" windowHeight="14400" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="132">
   <si>
     <t>Bartheld_2017_JOOFTHBI</t>
   </si>
@@ -147,12 +147,6 @@
     <t xml:space="preserve">y </t>
   </si>
   <si>
-    <t>table 1, figure 2, 3, 5</t>
-  </si>
-  <si>
-    <t>heatshock, return for pulse press experiments work; missing sample size for current extraction</t>
-  </si>
-  <si>
     <t>Kern_2015_PHYS</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
     <t>figure 1, 2</t>
   </si>
   <si>
-    <t>might need to return to get actual irradiances for UV treatments (they manipulated both temperature and irradiance in these experiments)</t>
-  </si>
-  <si>
     <t>Manenti_2014_JOOFEVBI</t>
   </si>
   <si>
@@ -258,9 +249,6 @@
     <t>population</t>
   </si>
   <si>
-    <t xml:space="preserve">appear to have constant, flux, red and white temp treatments; exlcuded because they were reared in flux but then measured in two different regimes, return for acclimation analysis </t>
-  </si>
-  <si>
     <t>Hoskins_2020_JOOFTHBI</t>
   </si>
   <si>
@@ -327,9 +315,6 @@
     <t>Temperature and Uv-b-Insensitive Performance in Tadpoles of the Ornate Burrowing Frog: An Ephemeral Pond Specialist.</t>
   </si>
   <si>
-    <t>figure 2, 4, 5</t>
-  </si>
-  <si>
     <t xml:space="preserve">figure 2,3 for full analysis, figure 4 and 5 acclimation </t>
   </si>
   <si>
@@ -357,9 +342,6 @@
     <t>can Alternating Temperature, Moist Chilling, and Gibberellin Interchangeably Promote the Completion of Germination in Clematis Vitalba Seeds?</t>
   </si>
   <si>
-    <t xml:space="preserve">return for cold exposure in figure 2 and figure 1; not sure how usable data for big met analysis is </t>
-  </si>
-  <si>
     <t>Rodgers_2018_JOOFTHBI</t>
   </si>
   <si>
@@ -378,82 +360,67 @@
     <t>Plastic Responses to Diel Thermal Variation in Juvenile Green Sturgeon, Acipenser Medirostris.</t>
   </si>
   <si>
-    <t>figure 2, 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">acclimation at flux and tested at different constant treatments </t>
   </si>
   <si>
-    <t>Saxon_2018_JOOFEVBI</t>
-  </si>
-  <si>
-    <t>Saxon, A. D. and O'Brien, E. K. and Bridle, J. R.</t>
-  </si>
-  <si>
-    <t>Temperature fluctuations during development reduce male fitness and may limit adaptive potential in tropical rainforest Drosophila</t>
-  </si>
-  <si>
-    <t>10.1111/jeb.13231</t>
-  </si>
-  <si>
-    <t>Understanding the potential for organisms to tolerate thermal stress through physiological or evolutionary responses is crucial given rapid climate change. Although climate models predict increases in both temperature mean and variance, such tolerances are typically assessed under constant conditions. We tested the effects of temperature variability during development on male fitness in the rainforest fly Drosophila birchii, by simulating thermal variation typical of the warm and cool margins of its elevational distribution, and estimated heritabilities and genetic correlations of fitness traits. Reproductive success was reduced for males reared in warm (mean 24 degrees C) fluctuating (+/- 3 degrees C) vs. constant conditions but not in cool fluctuating conditions (mean 17 degrees C), although fluctuations reduced body size at both temperatures. Male reproductive success under warm fluctuating conditions was similar to that at constant 27 degrees C, indicating that briefly exceeding critical thermal limits has similar fitness costs to continuously stressful conditions. There was substantial heritable variation in all traits. However, reproductive success traits showed no genetic correlation between treatments reflecting temperature variation at elevational extremes, which may constrain evolutionary responses at these ecological margins. Our data suggest that even small increases in temperature variability will threaten tropical ectotherms living close to their upper thermal limits, both through direct effects on fitness and by limiting their adaptive potential.</t>
-  </si>
-  <si>
-    <t>Temperature Fluctuations During Development Reduce Male Fitness and may Limit Adaptive Potential in Tropical Rainforest Drosophila.</t>
-  </si>
-  <si>
-    <t>doesn't appear to be extractable, has 95% CI in table 1+2, data available in dryad doesn't have error listed?</t>
-  </si>
-  <si>
-    <t>Takano_2014_APPENTANDZOO</t>
-  </si>
-  <si>
-    <t>Takano, Shun-ichiro</t>
-  </si>
-  <si>
-    <t>Survival of Bactrocera latifrons (Diptera: Tephritidae) adults under constant and fluctuating low temperatures</t>
-  </si>
-  <si>
-    <t>APPLIED ENTOMOLOGY AND ZOOLOGY</t>
-  </si>
-  <si>
-    <t>10.1007/s13355-014-0263-1</t>
-  </si>
-  <si>
-    <t>Bactrocera latifrons (Hendel) is believed to have originated in Southeast Asia but has invaded Hawaii and most recently East Africa. This insect has also been recorded on Okinawa Island, the far south of Kyushu Island, Japan. To assess the overwintering ability of B. latifrons adults, survival at constant temperatures (8, 10, 12, 14, 15 A degrees C) and under fluctuating thermal regimes (FTRs) was investigated. At 14 or 15 A degrees C, more than 30 % of females survived for 90 days. Time required to kill 95 % of B. latifrons at 8 A degrees C was estimated to be 13 days; at 10 A degrees C, 29 days; and at 12 A degrees C, 38 days for females, and 8, 17, and 24 days at the same above temperatures, respectively, for males, suggesting low cold tolerance of this species. The results show that females survive cold temperatures better than males. Under an FTR of 11 A degrees C (22 h)/20 A degrees C (2 h) (average 11.8 A degrees C) survival of females drastically increased compared to that at a constant temperature of 12 A degrees C, whereas the survival of males increased slightly. Survival under FTRs indicates that adult B. latifrons may not overwinter in the north of Tanegashima Island, located 30 km south of Kyushu Island, Japan.</t>
-  </si>
-  <si>
-    <t>0003-6862</t>
-  </si>
-  <si>
-    <t>Survival of Bactrocera Latifrons (Diptera: Tephritidae) Adults under Constant and Fluctuating Low Temperatures.</t>
-  </si>
-  <si>
-    <t>table 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cold acclimation data featured, unclear whether fluctuating and constant treatments can be extracted here </t>
-  </si>
-  <si>
-    <t>Treidel_2016_JOOFEXBI</t>
-  </si>
-  <si>
-    <t>Treidel, L. A. and Carter, A. W. and Bowden, R. M.</t>
-  </si>
-  <si>
-    <t>Temperature experienced during incubation affects antioxidant capacity but not oxidative damage in hatchling red-eared slider turtles (Trachemys scripta elegans)</t>
-  </si>
-  <si>
-    <t>10.1242/jeb.128843</t>
-  </si>
-  <si>
-    <t>Our understanding of how oxidative stress resistance phenotypes are affected by the developmental environment is limited. One component of the developmental environment, which is likely central to early life oxidative stress among ectothermic and oviparous species, is that of temperature. We investigated how incubation temperature manipulations affect oxidative damage and total antioxidant capacity (TAC) in red-eared slider turtle (Trachemys scripta elegans) hatchlings. First, to determine whether temperature fluctuations elicit oxidative stress, eggs from clutches were randomly assigned to either a constant (29.5 degrees C) or daily fluctuating temperature incubation (28.7 +/- 3 degrees C) treatment. Second, to assess the effect of temperature fluctuation frequency on oxidative stress, eggs were incubated in one of three fluctuating incubation regimes: 28.7 +/- 3 degrees C fluctuations every 12 h (hyper), 24 h (normal) or 48 h (hypo). Third, we tested the influence of average incubation temperature by incubating eggs in a daily fluctuating incubation temperature regime with a mean temperature of 26.5 degrees C (low), 27.1 degrees C (medium) or 27.7 degrees C (high). Although the accumulation of oxidative damage in hatchlings was unaffected by any thermal manipulation, TAC was affected by both temperature fluctuation frequency and average incubation temperature. Individuals incubated with a low frequency of temperature fluctuations had reduced TAC, while incubation at a lower average temperature was associated with enhanced TAC. These results indicate that although sufficient to prevent oxidative damage, TAC is influenced by developmental thermal environments, potentially because of temperature-mediated changes in metabolic rate. The observed differences in TAC may have important future consequences for hatchling fitness and overwinter survival.</t>
-  </si>
-  <si>
-    <t>Temperature Experienced During Incubation Affects Antioxidant Capacity but not Oxidative Damage in Hatchling Red-Eared Slider Turtles (Trachemys Scripta Elegans)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incubation in flux temps </t>
+    <t xml:space="preserve">heatshock, acclimation to fluctuating temps then measured traits at constant temps </t>
+  </si>
+  <si>
+    <t>figure 2, 3, 4</t>
+  </si>
+  <si>
+    <t>heatshock assay--likely not usable for acclimation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usable </t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appear to have constant, flux, red and white temp treatments; exlcuded because they were reared in flux but then measured in two different regimes, return for acclimation analysis -- this features multiple generations </t>
+  </si>
+  <si>
+    <t>y?</t>
+  </si>
+  <si>
+    <t>figure 1, 4</t>
+  </si>
+  <si>
+    <t>figure 4, 5</t>
+  </si>
+  <si>
+    <t>return for cold exposure in figure 2 and figure 1; not sure how usable data for big met analysis is--- doesn't fit the acclimated to flux measured in constant pattern</t>
+  </si>
+  <si>
+    <t>Javal_2016_ANIMBIOL</t>
+  </si>
+  <si>
+    <t>Javal, Marion and Renault, David and Colinet, Herve</t>
+  </si>
+  <si>
+    <t>Impact of fluctuating thermal regimes on Drosophila melanogaster survival to cold stress</t>
+  </si>
+  <si>
+    <t>ANIMAL BIOLOGY</t>
+  </si>
+  <si>
+    <t>10.1163/15707563-00002510</t>
+  </si>
+  <si>
+    <t>Temperature directly affects survival, development and reproduction in insects and thereby it is a key environmental driver for geographic distribution and population dynamics. This study aims at testing the survival of Drosophila melanogaster under constant low temperatures (CLTs) (2, 3, 4, and 5 degrees C) vs. fluctuating thermal regimes (FTRs). In the latter, the cold stress period was interrupted daily by 2 h pulses at 20 degrees C. Since acclimation enhances cold tolerance, we tested whether benefits of acclimation can combine with those of FTRs. Since D. melanogaster overwinters as non-reproductive adults, we tested if actively reproducing adults are more susceptible to cold stress than virgin females that have a much reduced reproductive activity. The results show that short interruptions of cold stress enhanced survival of adult flies. Survival was time- and temperature-dependent. Prior acclimation to low temperature allowed flies to better cope with cold stress under CLTs. On the other hand, acclimated flies did not profit from the benefits of FTRs and even showed lower survival under FTRs, probably because flies deacclimated during the periodic warm intervals. Gravid females were overall less cold tolerant than virgin females, and both survived better under FTRs. Cold survival at pupal stage was much lower than at adult stage, and no clear benefit of FIR was observed in this life stage. Our study highlights critical variables to take into account when designing experiments of prolonged exposure to low temperature in insects.</t>
+  </si>
+  <si>
+    <t>1570-7555</t>
+  </si>
+  <si>
+    <t>Impact of Fluctuating Thermal Regimes on Drosophila Melanogaster Survival to Cold Stress.</t>
+  </si>
+  <si>
+    <t>figure 1,2,3</t>
+  </si>
+  <si>
+    <t>pulse press, acclimation experiment</t>
   </si>
 </sst>
 </file>
@@ -469,12 +436,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -489,9 +462,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,15 +780,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F4095-DAD1-314E-93A6-2C3D1771AF66}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="N2" sqref="N2:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -869,8 +843,11 @@
       <c r="R1" t="s">
         <v>30</v>
       </c>
+      <c r="S1" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -922,8 +899,11 @@
       <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="S2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -967,163 +947,172 @@
         <v>39</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>10</v>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2015</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="1" t="s">
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2014</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="L5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="O5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>10</v>
+      <c r="Q5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="1" t="s">
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F6" s="1">
         <v>2019</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>8</v>
@@ -1141,42 +1130,45 @@
         <v>13</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F7" s="1">
         <v>2012</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>8</v>
@@ -1188,48 +1180,51 @@
         <v>11</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1">
         <v>2020</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>8</v>
@@ -1241,48 +1236,51 @@
         <v>11</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="F9" s="1">
         <v>2015</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>8</v>
@@ -1294,48 +1292,51 @@
         <v>11</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F10" s="1">
         <v>2014</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>8</v>
@@ -1347,107 +1348,113 @@
         <v>39</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>10</v>
+      <c r="F11" s="2">
+        <v>2017</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="1">
-        <v>2017</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F12" s="1">
         <v>2018</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>8</v>
@@ -1459,48 +1466,51 @@
         <v>39</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F13" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>8</v>
@@ -1509,125 +1519,21 @@
         <v>10</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2016</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data extraction /lit search metadata /acclimation /acclimationjan29.xlsx
+++ b/data extraction /lit search metadata /acclimation /acclimationjan29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /acclimation /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1033DDE-6A04-8F41-BD89-D5CF356F0B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C557C6F7-CA2D-7048-BB28-A66EB35DE50B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="28600" windowHeight="14400" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
+    <workbookView xWindow="5520" yWindow="460" windowWidth="28600" windowHeight="14400" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="142">
   <si>
     <t>Bartheld_2017_JOOFTHBI</t>
   </si>
@@ -421,6 +421,36 @@
   </si>
   <si>
     <t>pulse press, acclimation experiment</t>
+  </si>
+  <si>
+    <t>Bernhardt_2018_PROFTHROSOB.SC</t>
+  </si>
+  <si>
+    <t>Bernhardt, Joey R. and Sunday, Jennifer M. and Thompson, Patrick L. and O'Connor, Mary I.</t>
+  </si>
+  <si>
+    <t>Nonlinear averaging of thermal experience predicts population growth rates in a thermally variable environment</t>
+  </si>
+  <si>
+    <t>PROCEEDINGS OF THE ROYAL SOCIETY B-BIOLOGICAL SCIENCES</t>
+  </si>
+  <si>
+    <t>10.1098/rspb.2018.1076</t>
+  </si>
+  <si>
+    <t>As thermal regimes change worldwide, projections of future population and species persistence often require estimates of how population growth rates depend on temperature. These projections rarely account for how temporal variation in temperature can systematically modify growth rates relative to projections based on constant temperatures. Here, we tested the hypothesis that time-averaged population growth rates in fluctuating thermal environments differ from growth rates in constant conditions as a consequence of Jensen's inequality, and that the thermal performance curves (TPCs) describing population growth in fluctuating environments can be predicted quantitatively based on TPCs generated in constant laboratory conditions. With experimental populations of the green alga Tetraselmis tetrahele, we show that nonlinear averaging techniques accurately predicted increased as well as decreased population growth rates in fluctuating thermal regimes relative to constant thermal regimes. We extrapolate from these results to project critical temperatures for population growth and persistence of 89 phytoplankton species in naturally variable thermal environments. These results advance our ability to predict population dynamics in the context of global change.</t>
+  </si>
+  <si>
+    <t>0962-8452</t>
+  </si>
+  <si>
+    <t>Nonlinear Averaging of Thermal Experience Predicts Population Growth Rates in a Thermally Variable Environment.</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check supplementary info, constant vs flux </t>
   </si>
 </sst>
 </file>
@@ -780,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F4095-DAD1-314E-93A6-2C3D1771AF66}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N13"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1534,6 +1564,62 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14">
+        <v>2018</v>
+      </c>
+      <c r="G14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q15" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data extraction /lit search metadata /acclimation /acclimationjan29.xlsx
+++ b/data extraction /lit search metadata /acclimation /acclimationjan29.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/data extraction /lit search metadata /acclimation /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C557C6F7-CA2D-7048-BB28-A66EB35DE50B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28D0177-6E0F-F543-8E57-E07215D22A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="460" windowWidth="28600" windowHeight="14400" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
+    <workbookView xWindow="28800" yWindow="-28000" windowWidth="23560" windowHeight="10000" xr2:uid="{15E522D6-79C7-664C-9C48-CC1A91CDC4AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="146">
   <si>
     <t>Bartheld_2017_JOOFTHBI</t>
   </si>
@@ -147,9 +147,6 @@
     <t xml:space="preserve">y </t>
   </si>
   <si>
-    <t>Kern_2015_PHYS</t>
-  </si>
-  <si>
     <t>Kern, Pippa and Cramp, Rebecca L. and Seebacher, Frank and Kazerouni, Ensiyeh Ghanizadeh and Franklin, Craig E.</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>Plasticity of Protective Mechanisms Only Partially Explains Interactive Effects of Temperature and Uvr on Upper Thermal Limits.</t>
   </si>
   <si>
-    <t>figure 1, 2</t>
-  </si>
-  <si>
     <t>Manenti_2014_JOOFEVBI</t>
   </si>
   <si>
@@ -222,9 +216,6 @@
     <t>extractable?</t>
   </si>
   <si>
-    <t xml:space="preserve">acclimated at fluctuating and exposed to different constant treatments </t>
-  </si>
-  <si>
     <t>Hallsson_2012_JOOFEVBI</t>
   </si>
   <si>
@@ -366,21 +357,12 @@
     <t xml:space="preserve">heatshock, acclimation to fluctuating temps then measured traits at constant temps </t>
   </si>
   <si>
-    <t>figure 2, 3, 4</t>
-  </si>
-  <si>
-    <t>heatshock assay--likely not usable for acclimation?</t>
-  </si>
-  <si>
     <t xml:space="preserve">usable </t>
   </si>
   <si>
     <t>n</t>
   </si>
   <si>
-    <t xml:space="preserve">appear to have constant, flux, red and white temp treatments; exlcuded because they were reared in flux but then measured in two different regimes, return for acclimation analysis -- this features multiple generations </t>
-  </si>
-  <si>
     <t>y?</t>
   </si>
   <si>
@@ -420,9 +402,6 @@
     <t>figure 1,2,3</t>
   </si>
   <si>
-    <t>pulse press, acclimation experiment</t>
-  </si>
-  <si>
     <t>Bernhardt_2018_PROFTHROSOB.SC</t>
   </si>
   <si>
@@ -451,6 +430,39 @@
   </si>
   <si>
     <t xml:space="preserve">check supplementary info, constant vs flux </t>
+  </si>
+  <si>
+    <t>figure 2,3,4,5</t>
+  </si>
+  <si>
+    <t>extraction notes</t>
+  </si>
+  <si>
+    <t>the developmental data for this study was included in the strict, full analysis but it sounds like they measured those traits after exposing the Ctmax and acclimation assays to that data may need to included in the acclimation assay instead of the original analysis; unsure about sample size...methods listed 7-9 as sample size for each of the traits/temps so i assumed the lower of the two...</t>
+  </si>
+  <si>
+    <t>Kern_2015_phys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heatshock assay--likely not usable for acclimation, excluded because mean temperature not the same for flux and constant trt </t>
+  </si>
+  <si>
+    <t>acclimated at fluctuating and exposed to different constant treatments, not sure how to handle the isolated thermoperiod trts (no supp info or explanation in the methods)</t>
+  </si>
+  <si>
+    <t>appear to have constant, flux, red and white temp treatments; exlcuded because they were reared in flux but then measured in two different regimes, return for acclimation analysis -- this features multiple generations-- generation time IS 25 day at 30 C</t>
+  </si>
+  <si>
+    <t>table 1</t>
+  </si>
+  <si>
+    <t>figure 2, 3</t>
+  </si>
+  <si>
+    <t>pulse press, acclimation experiment-- cold exposure probably better for pulse press?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figure 2, fig s6 </t>
   </si>
 </sst>
 </file>
@@ -466,7 +478,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,6 +488,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,10 +510,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,15 +829,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F4095-DAD1-314E-93A6-2C3D1771AF66}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -874,151 +893,160 @@
         <v>30</v>
       </c>
       <c r="S1" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="T1" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>2017</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="R2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2015</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2015</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F4" s="2">
         <v>2015</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>8</v>
@@ -1033,51 +1061,51 @@
         <v>10</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F5" s="2">
         <v>2014</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>8</v>
@@ -1101,48 +1129,48 @@
         <v>13</v>
       </c>
       <c r="Q5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1">
         <v>2019</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>8</v>
@@ -1160,45 +1188,48 @@
         <v>13</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F7" s="1">
         <v>2012</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>8</v>
@@ -1210,107 +1241,113 @@
         <v>11</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>10</v>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2020</v>
-      </c>
-      <c r="G8" s="1" t="s">
+    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="F9" s="1">
         <v>2015</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>8</v>
@@ -1322,110 +1359,113 @@
         <v>11</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>118</v>
+      <c r="F10" s="3">
+        <v>2014</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G10" s="1" t="s">
+    <row r="11" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F11" s="2">
         <v>2017</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>8</v>
@@ -1437,187 +1477,187 @@
         <v>39</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2018</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2016</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>116</v>
+      <c r="H13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="1">
+    <row r="14" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="3">
         <v>2018</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="G14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="S12" s="1" t="s">
+      <c r="O14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2016</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14">
-        <v>2018</v>
-      </c>
-      <c r="G14" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" t="s">
-        <v>139</v>
-      </c>
-      <c r="J14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" t="s">
-        <v>140</v>
-      </c>
-      <c r="L14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="Q15" s="1"/>
     </row>
   </sheetData>
